--- a/05 Spiderman.xlsx
+++ b/05 Spiderman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salvatore\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salvatore/Downloads/repofumetti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58CBED3-E963-4798-A79A-3FA194453E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF440A0B-BB1E-9A4E-86F1-F80813CB9964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="430" windowWidth="36340" windowHeight="18960" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="36340" windowHeight="18800" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -153,9 +153,6 @@
     <t>protagonista: Spider-Man</t>
   </si>
   <si>
-    <t>SEC da #1 a #361</t>
-  </si>
-  <si>
     <t>The Amazing Spider-Man Annual Vol 1</t>
   </si>
   <si>
@@ -362,6 +359,9 @@
   </si>
   <si>
     <t>SEC da #353 a #361</t>
+  </si>
+  <si>
+    <t>SEC da #1 a #379</t>
   </si>
 </sst>
 </file>
@@ -498,8 +498,8 @@
     <xf numFmtId="17" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -515,7 +515,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -837,11 +837,11 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -878,18 +878,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA8871-6201-49B9-BDF4-88BE03D31DF7}">
   <dimension ref="A4:D16"/>
   <sheetViews>
-    <sheetView zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="B1" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.90625" customWidth="1"/>
-    <col min="4" max="4" width="78.81640625" customWidth="1"/>
-    <col min="5" max="5" width="39.36328125" customWidth="1"/>
+    <col min="1" max="1" width="47.83203125" customWidth="1"/>
+    <col min="4" max="4" width="78.83203125" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="21.5">
+    <row r="4" spans="1:4" ht="22">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -934,7 +934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="22">
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
@@ -942,15 +942,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="22">
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -969,15 +969,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="21.5">
+    <row r="4" spans="1:4" ht="22">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -987,27 +987,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1025,7 +1025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="22">
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="22">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1056,19 +1056,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B468F013-F939-44A4-B919-701DCFF3BB38}">
   <dimension ref="A4:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.08984375" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
+    <col min="1" max="1" width="50.1640625" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="21.5">
+    <row r="4" spans="1:4" ht="22">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1078,17 +1078,17 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1108,10 +1108,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="22">
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="22">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -1127,27 +1127,27 @@
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="21.5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="22">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -1167,15 +1167,15 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" s="2" customFormat="1" ht="21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" s="2" customFormat="1" ht="22">
       <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
@@ -1183,15 +1183,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="35" spans="2:4" s="2" customFormat="1" ht="22">
       <c r="B35" s="2">
         <v>1</v>
       </c>
       <c r="C35" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1211,28 +1211,28 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="41.81640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="41.83203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="22">
       <c r="A4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22">
       <c r="A5" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2">
         <v>14</v>
@@ -1241,12 +1241,12 @@
         <v>24959</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -1255,12 +1255,12 @@
         <v>25020</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -1269,12 +1269,12 @@
         <v>25143</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="22">
       <c r="A8" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1283,12 +1283,12 @@
         <v>27181</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="22">
+      <c r="A9" s="10" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21">
-      <c r="A9" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="B9" s="2">
         <v>12</v>
@@ -1297,7 +1297,7 @@
         <v>28338</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/05 Spiderman.xlsx
+++ b/05 Spiderman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salvatore/Downloads/repofumetti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF440A0B-BB1E-9A4E-86F1-F80813CB9964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676BBCB7-76F7-7E41-A263-5B766F7B26C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="36340" windowHeight="18800" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>Da</t>
   </si>
@@ -362,13 +362,22 @@
   </si>
   <si>
     <t>SEC da #1 a #379</t>
+  </si>
+  <si>
+    <t>Uomo Ragno Star Comics da #4 a #17 For Fans  Only #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uomo Ragno Star Comics #27 a #29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uomo Ragno Star Comics #33 a #35 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +458,13 @@
       <color rgb="FF403F3F"/>
       <name val="Open Sans Condensed"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -477,7 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -496,6 +512,7 @@
     </xf>
     <xf numFmtId="17" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -876,10 +893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA8871-6201-49B9-BDF4-88BE03D31DF7}">
-  <dimension ref="A4:D16"/>
+  <dimension ref="A4:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -951,6 +968,146 @@
       </c>
       <c r="D16" s="2" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18">
+        <v>221</v>
+      </c>
+      <c r="C18">
+        <v>230</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="14" customFormat="1">
+      <c r="B19" s="14">
+        <v>231</v>
+      </c>
+      <c r="C19" s="14">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20">
+        <v>237</v>
+      </c>
+      <c r="C20">
+        <v>241</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="14" customFormat="1">
+      <c r="B21" s="14">
+        <v>242</v>
+      </c>
+      <c r="C21" s="14">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22">
+        <v>246</v>
+      </c>
+      <c r="C22">
+        <v>248</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="14">
+        <v>249</v>
+      </c>
+      <c r="C23" s="14">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24">
+        <v>255</v>
+      </c>
+      <c r="C24">
+        <v>265</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="14">
+        <v>266</v>
+      </c>
+      <c r="C25" s="14">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26">
+        <v>267</v>
+      </c>
+      <c r="C26">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="14">
+        <v>273</v>
+      </c>
+      <c r="C27" s="14">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28">
+        <v>293</v>
+      </c>
+      <c r="C28">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="14">
+        <v>295</v>
+      </c>
+      <c r="C29" s="14">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30">
+        <v>296</v>
+      </c>
+      <c r="C30">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="14">
+        <v>330</v>
+      </c>
+      <c r="C31" s="14">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32">
+        <v>364</v>
+      </c>
+      <c r="C32">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="14">
+        <v>371</v>
+      </c>
+      <c r="C33" s="14">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B468F013-F939-44A4-B919-701DCFF3BB38}">
   <dimension ref="A4:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+    <sheetView topLeftCell="B32" zoomScale="309" zoomScaleNormal="309" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>

--- a/05 Spiderman.xlsx
+++ b/05 Spiderman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salvatore/Downloads/repofumetti/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676BBCB7-76F7-7E41-A263-5B766F7B26C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E8B7DB-8F21-4762-9C86-3506FF8DB3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="3570" yWindow="1550" windowWidth="36340" windowHeight="18950" activeTab="2" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -307,9 +307,6 @@
     <t>Peter Parker, Spectacular Spider-Man è la seconda serie dedicata a Spider-Man, ha iniziato le pubblicazioni nel 1976 e venne pubblicata fino a novembre 1998 quando chiuse dopo 263 numeri, 14 Annual e uno speciale nel 1995 (Super Special). Dal #134 diventa "The Spectacular Spider-Man"</t>
   </si>
   <si>
-    <t>SEC da #308 a #361</t>
-  </si>
-  <si>
     <t>Peter Parker, The Spectacular Spider-Man Annual vol.1</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t xml:space="preserve">Uomo Ragno Star Comics #33 a #35 </t>
+  </si>
+  <si>
+    <t>SEC da #308 a #388</t>
   </si>
 </sst>
 </file>
@@ -515,8 +515,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,7 +532,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -854,11 +854,11 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -895,18 +895,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA8871-6201-49B9-BDF4-88BE03D31DF7}">
   <dimension ref="A4:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
+    <sheetView topLeftCell="B16" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="47.83203125" customWidth="1"/>
-    <col min="4" max="4" width="78.83203125" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="47.81640625" customWidth="1"/>
+    <col min="4" max="4" width="78.81640625" customWidth="1"/>
+    <col min="5" max="5" width="39.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="22">
+    <row r="4" spans="1:4" ht="21.5">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -951,7 +951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="22">
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" ht="22">
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -967,7 +967,7 @@
         <v>211</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -978,7 +978,7 @@
         <v>230</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="14" customFormat="1">
@@ -997,7 +997,7 @@
         <v>241</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="14" customFormat="1">
@@ -1016,7 +1016,7 @@
         <v>248</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -1035,7 +1035,7 @@
         <v>265</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -1122,17 +1122,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322FC76B-24A8-476B-8022-37E1125E742B}">
   <dimension ref="A4:D16"/>
   <sheetViews>
-    <sheetView zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="50.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="50.81640625" customWidth="1"/>
+    <col min="4" max="4" width="31.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="22">
+    <row r="4" spans="1:4" ht="21.5">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="22">
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1190,15 +1190,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" ht="22">
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="2">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1217,13 +1217,13 @@
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="50.1640625" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="1" max="1" width="50.1796875" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="22">
+    <row r="4" spans="1:4" ht="21.5">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="22">
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" ht="22">
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -1287,24 +1287,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="22">
+    <row r="22" spans="1:1" ht="21.5">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -1329,10 +1329,10 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" s="2" customFormat="1" ht="22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="35" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B35" s="2">
         <v>1</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1368,14 +1368,14 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="41.83203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="41.81640625" style="10" customWidth="1"/>
     <col min="3" max="3" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="22">
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="22">
+    <row r="5" spans="1:4" ht="21">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="22">
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="22">
+    <row r="9" spans="1:4" ht="21">
       <c r="A9" s="10" t="s">
         <v>29</v>
       </c>

--- a/05 Spiderman.xlsx
+++ b/05 Spiderman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E8B7DB-8F21-4762-9C86-3506FF8DB3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A849B9-E959-404D-A72D-65B8D6A8518A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="1550" windowWidth="36340" windowHeight="18950" activeTab="2" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="1140" yWindow="1650" windowWidth="36370" windowHeight="18950" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -358,9 +358,6 @@
     <t>SEC da #353 a #361</t>
   </si>
   <si>
-    <t>SEC da #1 a #379</t>
-  </si>
-  <si>
     <t>Uomo Ragno Star Comics da #4 a #17 For Fans  Only #1</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>SEC da #308 a #388</t>
+  </si>
+  <si>
+    <t>SEC da #1 a #392</t>
   </si>
 </sst>
 </file>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA8871-6201-49B9-BDF4-88BE03D31DF7}">
   <dimension ref="A4:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -964,10 +964,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -978,7 +978,7 @@
         <v>230</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="14" customFormat="1">
@@ -997,7 +997,7 @@
         <v>241</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="14" customFormat="1">
@@ -1016,7 +1016,7 @@
         <v>248</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -1035,7 +1035,7 @@
         <v>265</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -1122,7 +1122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322FC76B-24A8-476B-8022-37E1125E742B}">
   <dimension ref="A4:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1198,7 +1198,7 @@
         <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/05 Spiderman.xlsx
+++ b/05 Spiderman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A849B9-E959-404D-A72D-65B8D6A8518A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85179F66-777F-41EB-8292-BC9C49D93A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1650" windowWidth="36370" windowHeight="18950" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="3520" yWindow="890" windowWidth="38580" windowHeight="19040" activeTab="2" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -367,10 +367,10 @@
     <t xml:space="preserve">Uomo Ragno Star Comics #33 a #35 </t>
   </si>
   <si>
-    <t>SEC da #308 a #388</t>
-  </si>
-  <si>
-    <t>SEC da #1 a #392</t>
+    <t>SEC da #1 a #405</t>
+  </si>
+  <si>
+    <t>SEC da #308 a #400</t>
   </si>
 </sst>
 </file>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA8871-6201-49B9-BDF4-88BE03D31DF7}">
   <dimension ref="A4:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="B4" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -964,10 +964,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322FC76B-24A8-476B-8022-37E1125E742B}">
   <dimension ref="A4:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1195,10 +1195,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/05 Spiderman.xlsx
+++ b/05 Spiderman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85179F66-777F-41EB-8292-BC9C49D93A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A0657F-06D0-4340-9721-00723A576365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="890" windowWidth="38580" windowHeight="19040" activeTab="2" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="3750" yWindow="2410" windowWidth="38580" windowHeight="19040" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -851,7 +851,7 @@
   <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA8871-6201-49B9-BDF4-88BE03D31DF7}">
   <dimension ref="A4:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322FC76B-24A8-476B-8022-37E1125E742B}">
   <dimension ref="A4:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A11" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>

--- a/05 Spiderman.xlsx
+++ b/05 Spiderman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A0657F-06D0-4340-9721-00723A576365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08203A7-34F6-4A2B-924E-635DF4675423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="2410" windowWidth="38580" windowHeight="19040" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -370,14 +370,14 @@
     <t>SEC da #1 a #405</t>
   </si>
   <si>
-    <t>SEC da #308 a #400</t>
+    <t>SEC da #308 a #413</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +465,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -493,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -513,6 +520,7 @@
     <xf numFmtId="17" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -895,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA8871-6201-49B9-BDF4-88BE03D31DF7}">
   <dimension ref="A4:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
+    <sheetView topLeftCell="B8" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1120,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322FC76B-24A8-476B-8022-37E1125E742B}">
-  <dimension ref="A4:D16"/>
+  <dimension ref="A4:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1195,11 +1203,14 @@
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>47</v>
       </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
